--- a/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\06,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\06,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B49B2-F03B-4276-B7A6-F6E84047C291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D0C67E-8EA9-4E84-9662-E359CFAE99DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,6 +479,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8544,8 +8546,8 @@
   <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R117" sqref="R117"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
